--- a/biology/Botanique/Sphagnales/Sphagnales.xlsx
+++ b/biology/Botanique/Sphagnales/Sphagnales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Sphagnales sont un ordre de mousses, les sphaignes. C'est le seul ordre de la classe des Sphagnopsida selon certains auteurs. L'ordre comprend alors deux familles : les Sphagnaceae et les Ambuchananiaceae.
-D'autres auteurs placent les Ambuchananiaceae dans un ordre qui leur est dédié, les  Ambuchananiales[2].
+D'autres auteurs placent les Ambuchananiaceae dans un ordre qui leur est dédié, les  Ambuchananiales.
 Les Sphagnales, selon les phylogénies moléculaires, sont proches des Takakiales, et avec elles, sont à la base des Bryophytes.
 </t>
         </is>
@@ -513,9 +525,11 @@
           <t>Liste des familles et genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (30 sept. 2016)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (30 sept. 2016) :
 famille Ambuchananiaceae
 genre Ambuchanania
 genre Eosphagnum (avec la seule espèce Eosphagnum inretortum)
@@ -523,7 +537,7 @@
 genre Flatbergium
 famille Sphagnaceae
 genre Sphagnum
-Selon ITIS      (30 sept. 2016)[4] :
+Selon ITIS      (30 sept. 2016) :
 famille Sphagnaceae
 genre Sphagnum</t>
         </is>
